--- a/Suivi Tim Lainé.xlsx
+++ b/Suivi Tim Lainé.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagiaire\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d2e3f3297a8ff7e/Bureau/Suivi-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E094D71-1223-4F0A-BFBC-76D494459DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4E094D71-1223-4F0A-BFBC-76D494459DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21C61498-856B-4792-90D6-4F8A64222B32}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{CF539EC5-3BDF-4CE5-B05E-309A2D75A2C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF539EC5-3BDF-4CE5-B05E-309A2D75A2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi_projets" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Prenom NOM</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Quentin</t>
   </si>
   <si>
-    <t>Fini la fiche Algo 1, commencer fiche Algo 2</t>
-  </si>
-  <si>
     <t>Arrivé à l'exercice 11 de la fiche Algo 2</t>
   </si>
   <si>
@@ -79,6 +76,18 @@
   </si>
   <si>
     <t>https://github.com/TimLaine/timothee_LAINE</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Fini la fiche Algo 1, commencé fiche Algo 2</t>
+  </si>
+  <si>
+    <t>Continué la fiche Algo 2, arrivé à l'exercice 14</t>
+  </si>
+  <si>
+    <t>Commencé la recherche d'une alternance et màj du profil LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -255,13 +264,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,11 +333,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,13 +357,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,7 +376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -667,256 +674,268 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC609783-CA00-46CE-A2CA-EBC4F05B373D}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
     <col min="8" max="8" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="22" t="s">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="16" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="D5" s="27"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>45092</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="29" t="s">
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>45093</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>45093</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>45096</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>45097</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>45098</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>45099</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>45100</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>45103</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>45104</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>45105</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>45106</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>45107</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -932,13 +951,23 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{BBC383C2-BD82-4DA3-96FF-90182112DEEE}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{5017A336-D21F-4F00-92E5-68E11B4B959E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E9E50D072E8F429600A5A4DFB79570" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="258385fc440d6e38a369b25097fe3065">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09f4b8ca-d6aa-4fa0-a49f-053bce947579" xmlns:ns3="e0126794-098a-4121-936a-035bd9667ffd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca49e0bb93b4f43935efa4e0f1def3d0" ns2:_="" ns3:_="">
     <xsd:import namespace="09f4b8ca-d6aa-4fa0-a49f-053bce947579"/>
@@ -1155,16 +1184,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E46630-91FC-4C92-932B-540B5F81C8D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4494570-4098-4156-98B4-69B9792AAFE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1181,12 +1209,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E46630-91FC-4C92-932B-540B5F81C8D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Suivi Tim Lainé.xlsx
+++ b/Suivi Tim Lainé.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d2e3f3297a8ff7e/Bureau/Suivi-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagiaire\OneDrive - Elan Formation\Bureau\Suivi-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4E094D71-1223-4F0A-BFBC-76D494459DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21C61498-856B-4792-90D6-4F8A64222B32}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C60A876-0B82-45FA-93CB-D1CB44A20545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF539EC5-3BDF-4CE5-B05E-309A2D75A2C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="6765" xr2:uid="{CF539EC5-3BDF-4CE5-B05E-309A2D75A2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi_projets" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Prenom NOM</t>
   </si>
@@ -88,6 +88,45 @@
   </si>
   <si>
     <t>Commencé la recherche d'une alternance et màj du profil LinkedIn</t>
+  </si>
+  <si>
+    <t>Mathilde</t>
+  </si>
+  <si>
+    <t>Fais le cours sur UI/UX</t>
+  </si>
+  <si>
+    <t>Fini le cours UI/UX</t>
+  </si>
+  <si>
+    <t>Mickael/Quentin</t>
+  </si>
+  <si>
+    <t>Terminé l'exercice 14</t>
+  </si>
+  <si>
+    <t>Commencé et terminé l'exercice 15</t>
+  </si>
+  <si>
+    <t>Stephane</t>
+  </si>
+  <si>
+    <t>Fais le cours sur RGPD</t>
+  </si>
+  <si>
+    <t>Fini le cours RGPD</t>
+  </si>
+  <si>
+    <t>Sophie/Quentin</t>
+  </si>
+  <si>
+    <t>Fais la rencontre RH</t>
+  </si>
+  <si>
+    <t>Commencé l'exercice Livre</t>
+  </si>
+  <si>
+    <t>https://github.com/TimLaine/ExoLivre</t>
   </si>
 </sst>
 </file>
@@ -264,81 +303,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -357,9 +394,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -674,268 +715,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC609783-CA00-46CE-A2CA-EBC4F05B373D}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
     <col min="8" max="8" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="17" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="D5" s="26"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>45092</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>45093</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>45096</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>45097</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>45098</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>45099</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="B11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>45100</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>45103</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>45104</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>45105</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>45106</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>45107</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -952,22 +1039,15 @@
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{BBC383C2-BD82-4DA3-96FF-90182112DEEE}"/>
     <hyperlink ref="H7" r:id="rId2" xr:uid="{5017A336-D21F-4F00-92E5-68E11B4B959E}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{6D985296-BDE9-45FD-AD89-F5360934E060}"/>
+    <hyperlink ref="H11" r:id="rId4" xr:uid="{7040BC07-FFA0-453B-BB6A-A016DEBA2F2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E9E50D072E8F429600A5A4DFB79570" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="258385fc440d6e38a369b25097fe3065">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09f4b8ca-d6aa-4fa0-a49f-053bce947579" xmlns:ns3="e0126794-098a-4121-936a-035bd9667ffd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca49e0bb93b4f43935efa4e0f1def3d0" ns2:_="" ns3:_="">
     <xsd:import namespace="09f4b8ca-d6aa-4fa0-a49f-053bce947579"/>
@@ -1184,15 +1264,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E46630-91FC-4C92-932B-540B5F81C8D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4494570-4098-4156-98B4-69B9792AAFE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1209,4 +1290,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E46630-91FC-4C92-932B-540B5F81C8D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>